--- a/output/ABSOLUTE_21470989000177.xlsx
+++ b/output/ABSOLUTE_21470989000177.xlsx
@@ -1153,10 +1153,10 @@
         <v>44165</v>
       </c>
       <c r="B70">
-        <v>0.98783284</v>
+        <v>0.98991037</v>
       </c>
       <c r="C70">
-        <v>0.009201610989769016</v>
+        <v>0.01025635089580645</v>
       </c>
     </row>
   </sheetData>

--- a/output/ABSOLUTE_21470989000177.xlsx
+++ b/output/ABSOLUTE_21470989000177.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ABSOLUTE VERTEX FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,777 +383,570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42094</v>
       </c>
       <c r="B2">
-        <v>-0.001647590000000032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42124</v>
       </c>
       <c r="B3">
-        <v>0.006960730000000082</v>
-      </c>
-      <c r="C3">
         <v>0.008622526388252227</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42155</v>
       </c>
       <c r="B4">
-        <v>0.03332299000000005</v>
-      </c>
-      <c r="C4">
         <v>0.02618002789443441</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42185</v>
       </c>
       <c r="B5">
-        <v>0.03491397000000007</v>
-      </c>
-      <c r="C5">
         <v>0.001539673476151027</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42216</v>
       </c>
       <c r="B6">
-        <v>0.0754470599999999</v>
-      </c>
-      <c r="C6">
         <v>0.03916566127713961</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42247</v>
       </c>
       <c r="B7">
-        <v>0.10947789</v>
-      </c>
-      <c r="C7">
         <v>0.03164342650209129</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42277</v>
       </c>
       <c r="B8">
-        <v>0.1353643</v>
-      </c>
-      <c r="C8">
         <v>0.0233320647786861</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42308</v>
       </c>
       <c r="B9">
-        <v>0.1331769</v>
-      </c>
-      <c r="C9">
         <v>-0.001926606288395694</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42338</v>
       </c>
       <c r="B10">
-        <v>0.14811565</v>
-      </c>
-      <c r="C10">
         <v>0.0131830696513493</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42369</v>
       </c>
       <c r="B11">
-        <v>0.1562438799999999</v>
-      </c>
-      <c r="C11">
         <v>0.007079626516718784</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42400</v>
       </c>
       <c r="B12">
-        <v>0.16718082</v>
-      </c>
-      <c r="C12">
         <v>0.009459025201499882</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42429</v>
       </c>
       <c r="B13">
-        <v>0.16359214</v>
-      </c>
-      <c r="C13">
         <v>-0.00307465641870297</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42460</v>
       </c>
       <c r="B14">
-        <v>0.14434349</v>
-      </c>
-      <c r="C14">
         <v>-0.01654243728390947</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42490</v>
       </c>
       <c r="B15">
-        <v>0.1744622300000001</v>
-      </c>
-      <c r="C15">
         <v>0.02631966735791891</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42521</v>
       </c>
       <c r="B16">
-        <v>0.17849435</v>
-      </c>
-      <c r="C16">
         <v>0.003433162767609854</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42551</v>
       </c>
       <c r="B17">
-        <v>0.19545379</v>
-      </c>
-      <c r="C17">
         <v>0.01439076903508263</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42582</v>
       </c>
       <c r="B18">
-        <v>0.2354978000000001</v>
-      </c>
-      <c r="C18">
         <v>0.03349691166230695</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42613</v>
       </c>
       <c r="B19">
-        <v>0.2466827199999999</v>
-      </c>
-      <c r="C19">
         <v>0.009052966342797175</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42643</v>
       </c>
       <c r="B20">
-        <v>0.2562527699999999</v>
-      </c>
-      <c r="C20">
         <v>0.007676411845990883</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42674</v>
       </c>
       <c r="B21">
-        <v>0.30390538</v>
-      </c>
-      <c r="C21">
         <v>0.0379323422307758</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42704</v>
       </c>
       <c r="B22">
-        <v>0.29711255</v>
-      </c>
-      <c r="C22">
         <v>-0.005209603475982316</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42735</v>
       </c>
       <c r="B23">
-        <v>0.3107535800000001</v>
-      </c>
-      <c r="C23">
         <v>0.01051645826724901</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42766</v>
       </c>
       <c r="B24">
-        <v>0.32012324</v>
-      </c>
-      <c r="C24">
         <v>0.007148300140442876</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42794</v>
       </c>
       <c r="B25">
-        <v>0.35695575</v>
-      </c>
-      <c r="C25">
         <v>0.02790081174542469</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42825</v>
       </c>
       <c r="B26">
-        <v>0.36933189</v>
-      </c>
-      <c r="C26">
         <v>0.009120518484114104</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42855</v>
       </c>
       <c r="B27">
-        <v>0.37484351</v>
-      </c>
-      <c r="C27">
         <v>0.004025043190953648</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42886</v>
       </c>
       <c r="B28">
-        <v>0.355208</v>
-      </c>
-      <c r="C28">
         <v>-0.01428199635607985</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42916</v>
       </c>
       <c r="B29">
-        <v>0.3787850699999999</v>
-      </c>
-      <c r="C29">
         <v>0.01739738106622735</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42947</v>
       </c>
       <c r="B30">
-        <v>0.4192125799999999</v>
-      </c>
-      <c r="C30">
         <v>0.02932111094008283</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42978</v>
       </c>
       <c r="B31">
-        <v>0.45888912</v>
-      </c>
-      <c r="C31">
         <v>0.02795672794839521</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43008</v>
       </c>
       <c r="B32">
-        <v>0.51836258</v>
-      </c>
-      <c r="C32">
         <v>0.04076626467678368</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43039</v>
       </c>
       <c r="B33">
-        <v>0.5265571200000001</v>
-      </c>
-      <c r="C33">
         <v>0.005396958610505376</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43069</v>
       </c>
       <c r="B34">
-        <v>0.53158595</v>
-      </c>
-      <c r="C34">
         <v>0.003294229828753492</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43100</v>
       </c>
       <c r="B35">
-        <v>0.5661726</v>
-      </c>
-      <c r="C35">
         <v>0.02258224554749932</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43131</v>
       </c>
       <c r="B36">
-        <v>0.6029107600000001</v>
-      </c>
-      <c r="C36">
         <v>0.02345728689162363</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43159</v>
       </c>
       <c r="B37">
-        <v>0.6155255100000001</v>
-      </c>
-      <c r="C37">
         <v>0.007869901628210441</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43190</v>
       </c>
       <c r="B38">
-        <v>0.6745411100000001</v>
-      </c>
-      <c r="C38">
         <v>0.03653028047820794</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43220</v>
       </c>
       <c r="B39">
-        <v>0.6507863199999999</v>
-      </c>
-      <c r="C39">
         <v>-0.01418585059401745</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43251</v>
       </c>
       <c r="B40">
-        <v>0.67593518</v>
-      </c>
-      <c r="C40">
         <v>0.01523447322970317</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43281</v>
       </c>
       <c r="B41">
-        <v>0.6978798100000001</v>
-      </c>
-      <c r="C41">
         <v>0.01309396106835115</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43312</v>
       </c>
       <c r="B42">
-        <v>0.7251678500000001</v>
-      </c>
-      <c r="C42">
         <v>0.01607183255215228</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43343</v>
       </c>
       <c r="B43">
-        <v>0.7058641999999999</v>
-      </c>
-      <c r="C43">
         <v>-0.01118943295865393</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43373</v>
       </c>
       <c r="B44">
-        <v>0.7251352499999999</v>
-      </c>
-      <c r="C44">
         <v>0.01129694262884473</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43404</v>
       </c>
       <c r="B45">
-        <v>0.7536145700000001</v>
-      </c>
-      <c r="C45">
         <v>0.01650845636595744</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43434</v>
       </c>
       <c r="B46">
-        <v>0.75741707</v>
-      </c>
-      <c r="C46">
         <v>0.002168378425368545</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43465</v>
       </c>
       <c r="B47">
-        <v>0.76969295</v>
-      </c>
-      <c r="C47">
         <v>0.006985183090317815</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43496</v>
       </c>
       <c r="B48">
-        <v>0.84895327</v>
-      </c>
-      <c r="C48">
         <v>0.04478761131980558</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43524</v>
       </c>
       <c r="B49">
-        <v>0.82327598</v>
-      </c>
-      <c r="C49">
         <v>-0.01388747374886334</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43555</v>
       </c>
       <c r="B50">
-        <v>0.8007250699999999</v>
-      </c>
-      <c r="C50">
         <v>-0.01236834700142331</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43585</v>
       </c>
       <c r="B51">
-        <v>0.8228930000000001</v>
-      </c>
-      <c r="C51">
         <v>0.01231055776882162</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43616</v>
       </c>
       <c r="B52">
-        <v>0.86249409</v>
-      </c>
-      <c r="C52">
         <v>0.02172430855788021</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43646</v>
       </c>
       <c r="B53">
-        <v>0.8768250799999999</v>
-      </c>
-      <c r="C53">
         <v>0.007694515691053727</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43677</v>
       </c>
       <c r="B54">
-        <v>0.86276563</v>
-      </c>
-      <c r="C54">
         <v>-0.007491081694198098</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43708</v>
       </c>
       <c r="B55">
-        <v>0.86930258</v>
-      </c>
-      <c r="C55">
         <v>0.003509271319333873</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43738</v>
       </c>
       <c r="B56">
-        <v>0.8821342999999999</v>
-      </c>
-      <c r="C56">
         <v>0.00686444245960427</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43769</v>
       </c>
       <c r="B57">
-        <v>0.92006871</v>
-      </c>
-      <c r="C57">
         <v>0.02015499637831386</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43799</v>
       </c>
       <c r="B58">
-        <v>0.9263668300000001</v>
-      </c>
-      <c r="C58">
         <v>0.003280153448258716</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43830</v>
       </c>
       <c r="B59">
-        <v>0.9537121099999999</v>
-      </c>
-      <c r="C59">
         <v>0.01419526103447266</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43861</v>
       </c>
       <c r="B60">
-        <v>0.9729014199999999</v>
-      </c>
-      <c r="C60">
         <v>0.009821974231402963</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43890</v>
       </c>
       <c r="B61">
-        <v>0.94651313</v>
-      </c>
-      <c r="C61">
         <v>-0.01337537179125747</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43921</v>
       </c>
       <c r="B62">
-        <v>0.9178533200000001</v>
-      </c>
-      <c r="C62">
         <v>-0.01472366641575129</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43951</v>
       </c>
       <c r="B63">
-        <v>0.95083154</v>
-      </c>
-      <c r="C63">
         <v>0.01719538176152069</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43982</v>
       </c>
       <c r="B64">
-        <v>0.9533422300000001</v>
-      </c>
-      <c r="C64">
         <v>0.001286984523533041</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>44012</v>
       </c>
       <c r="B65">
-        <v>0.9586958000000001</v>
-      </c>
-      <c r="C65">
         <v>0.002740723011962931</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>44043</v>
       </c>
       <c r="B66">
-        <v>0.9966144699999999</v>
-      </c>
-      <c r="C66">
         <v>0.01935914193515909</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44074</v>
       </c>
       <c r="B67">
-        <v>0.9958610999999999</v>
-      </c>
-      <c r="C67">
         <v>-0.0003773237203875679</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>44104</v>
       </c>
       <c r="B68">
-        <v>0.96441059</v>
-      </c>
-      <c r="C68">
         <v>-0.01575786511396005</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>44135</v>
       </c>
       <c r="B69">
-        <v>0.9697083500000001</v>
-      </c>
-      <c r="C69">
         <v>0.002696870006183349</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>44165</v>
       </c>
       <c r="B70">
-        <v>0.98991037</v>
-      </c>
-      <c r="C70">
-        <v>0.01025635089580645</v>
+        <v>0.006625843871758796</v>
       </c>
     </row>
   </sheetData>
